--- a/CoreRulebook/Data/Archetypes/Oathkeeper.xlsx
+++ b/CoreRulebook/Data/Archetypes/Oathkeeper.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t xml:space="preserve">LVL</t>
   </si>
@@ -31,19 +31,61 @@
     <t xml:space="preserve">Oathkeeper</t>
   </si>
   <si>
-    <t xml:space="preserve">Knight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acolyte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stuff0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stuff1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stuff2</t>
+    <t xml:space="preserve">Advocate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disciple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unbreakable Vow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detect Ally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oath of Fealty\comma{} Oath Perk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Powerful Patron\comma{} Patron Boon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redemption Arc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Self Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patron Boon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devotion to the cause</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oath Perk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steadfastness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singular Focus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loyalty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patron Infusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shield of Faith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanatic\apos{}s strike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shield of Faith II</t>
   </si>
 </sst>
 </file>
@@ -53,7 +95,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -74,6 +116,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -118,7 +165,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -127,14 +174,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -147,14 +198,15 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="41.31"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -185,12 +237,6 @@
       <c r="C2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -200,6 +246,9 @@
         <f aca="false">_xlfn.FLOOR.MATH(A3/5)</f>
         <v>0</v>
       </c>
+      <c r="C3" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -209,6 +258,12 @@
         <f aca="false">_xlfn.FLOOR.MATH(A4/5)</f>
         <v>0</v>
       </c>
+      <c r="D4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -218,6 +273,9 @@
         <f aca="false">_xlfn.FLOOR.MATH(A5/5)</f>
         <v>0</v>
       </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -227,6 +285,12 @@
         <f aca="false">_xlfn.FLOOR.MATH(A6/5)</f>
         <v>1</v>
       </c>
+      <c r="D6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -236,6 +300,9 @@
         <f aca="false">_xlfn.FLOOR.MATH(A7/5)</f>
         <v>1</v>
       </c>
+      <c r="C7" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -245,6 +312,9 @@
         <f aca="false">_xlfn.FLOOR.MATH(A8/5)</f>
         <v>1</v>
       </c>
+      <c r="D8" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -254,6 +324,12 @@
         <f aca="false">_xlfn.FLOOR.MATH(A9/5)</f>
         <v>1</v>
       </c>
+      <c r="D9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -263,6 +339,12 @@
         <f aca="false">_xlfn.FLOOR.MATH(A10/5)</f>
         <v>1</v>
       </c>
+      <c r="C10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -272,6 +354,9 @@
         <f aca="false">_xlfn.FLOOR.MATH(A11/5)</f>
         <v>2</v>
       </c>
+      <c r="E11" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
@@ -281,6 +366,12 @@
         <f aca="false">_xlfn.FLOOR.MATH(A12/5)</f>
         <v>2</v>
       </c>
+      <c r="D12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
@@ -290,6 +381,9 @@
         <f aca="false">_xlfn.FLOOR.MATH(A13/5)</f>
         <v>2</v>
       </c>
+      <c r="C13" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
@@ -299,6 +393,12 @@
         <f aca="false">_xlfn.FLOOR.MATH(A14/5)</f>
         <v>2</v>
       </c>
+      <c r="D14" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
@@ -308,6 +408,9 @@
         <f aca="false">_xlfn.FLOOR.MATH(A15/5)</f>
         <v>2</v>
       </c>
+      <c r="C15" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -317,6 +420,9 @@
         <f aca="false">_xlfn.FLOOR.MATH(A16/5)</f>
         <v>3</v>
       </c>
+      <c r="D16" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
@@ -327,6 +433,9 @@
         <v>3</v>
       </c>
       <c r="D17" s="1"/>
+      <c r="E17" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
@@ -336,6 +445,12 @@
         <f aca="false">_xlfn.FLOOR.MATH(A18/5)</f>
         <v>3</v>
       </c>
+      <c r="D18" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
@@ -345,6 +460,12 @@
         <f aca="false">_xlfn.FLOOR.MATH(A19/5)</f>
         <v>3</v>
       </c>
+      <c r="C19" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
@@ -362,6 +483,12 @@
       <c r="B21" s="0" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(A21/5)</f>
         <v>4</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
